--- a/F21MP/Testing/Student Testing/Survey Results/System Usability Scale (SUS) Survey.xlsx
+++ b/F21MP/Testing/Student Testing/Survey Results/System Usability Scale (SUS) Survey.xlsx
@@ -5,15 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kausa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kausa\Documents\GitHub\Coursework-Wizard-Deadlines-Visualiser\F21MP\Testing\Student Testing\Survey Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A30482-483C-45B8-9BFA-BA2A1AE7E348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E938822B-E314-4298-AC36-248DF86E40AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="62">
   <si>
     <t>Start time</t>
   </si>
@@ -183,13 +185,52 @@
   </si>
   <si>
     <t xml:space="preserve"> 18:56:17</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>Converted answers into points</t>
+  </si>
+  <si>
+    <t>for positive: x-1</t>
+  </si>
+  <si>
+    <t>for negative: 5-x</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x 2.5 = </t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>then sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">then multiply sum with </t>
+  </si>
+  <si>
+    <t>avg SUS score:</t>
+  </si>
+  <si>
+    <t>(Good)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,16 +238,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -214,11 +275,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -228,130 +326,146 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="40">
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -370,14 +484,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:AP11" totalsRowShown="0">
   <autoFilter ref="A1:AP11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="42">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Participant Number" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Participant Number" dataDxfId="39">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="id"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="38">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="startDate"/>
@@ -391,28 +505,28 @@
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="39">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="37">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="responder"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="38">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="36">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="responderName"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Total points" dataDxfId="37">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Total points" dataDxfId="35">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="totalScore"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Quiz feedback" dataDxfId="36">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Quiz feedback" dataDxfId="34">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="quizFeedback"/>
@@ -426,238 +540,238 @@
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Points - Participant Number" dataDxfId="35">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Points - Participant Number" dataDxfId="33">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="ra419df220402412f9b7ad5202af9e20c-Score"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Feedback - Participant Number" dataDxfId="34">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Feedback - Participant Number" dataDxfId="32">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="ra419df220402412f9b7ad5202af9e20c-Comment"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Points - Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration." dataDxfId="33">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Points - Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration." dataDxfId="31">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="rf2f595f4ba6a44e5a7c3d8e41fa4c69a-Score"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Feedback - Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration." dataDxfId="32">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Feedback - Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration." dataDxfId="30">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="rf2f595f4ba6a44e5a7c3d8e41fa4c69a-Comment"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..1. I think that I would like to use this website frequently." dataDxfId="31">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..1. I think that I would like to use this website frequently." dataDxfId="29">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r47a6d53ec2af416f8ddcffcebd55d1e4"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Points - Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..1. I think that I would like to use this website frequently." dataDxfId="30">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Points - Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..1. I think that I would like to use this website frequently." dataDxfId="28">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r47a6d53ec2af416f8ddcffcebd55d1e4-Score"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Feedback - Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..1. I think that I would like to use this website frequently." dataDxfId="29">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Feedback - Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..1. I think that I would like to use this website frequently." dataDxfId="27">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r47a6d53ec2af416f8ddcffcebd55d1e4-Comment"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..2. I found the website unnecessarily complex." dataDxfId="28">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..2. I found the website unnecessarily complex." dataDxfId="26">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="rf569de06fa914f4eb4c7b9baefdd75da"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Points - Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..2. I found the website unnecessarily complex." dataDxfId="27">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Points - Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..2. I found the website unnecessarily complex." dataDxfId="25">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="rf569de06fa914f4eb4c7b9baefdd75da-Score"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Feedback - Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..2. I found the website unnecessarily complex." dataDxfId="26">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Feedback - Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..2. I found the website unnecessarily complex." dataDxfId="24">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="rf569de06fa914f4eb4c7b9baefdd75da-Comment"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..3. I thought the website was easy to use." dataDxfId="25">
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..3. I thought the website was easy to use." dataDxfId="23">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r18ce831d9ec84837ae78d590d5e06584"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Points - Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..3. I thought the website was easy to use." dataDxfId="24">
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Points - Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..3. I thought the website was easy to use." dataDxfId="22">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r18ce831d9ec84837ae78d590d5e06584-Score"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Feedback - Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..3. I thought the website was easy to use." dataDxfId="23">
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Feedback - Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..3. I thought the website was easy to use." dataDxfId="21">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r18ce831d9ec84837ae78d590d5e06584-Comment"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..4. I think that I would need the support of a technical person" dataDxfId="22">
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..4. I think that I would need the support of a technical person" dataDxfId="20">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="rfe3dc9c8a3954e01b1774c3b5b800e0d"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Points - Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..4. I think that I would need the support of a technical person" dataDxfId="21">
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Points - Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..4. I think that I would need the support of a technical person" dataDxfId="19">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="rfe3dc9c8a3954e01b1774c3b5b800e0d-Score"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Feedback - Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..4. I think that I would need the support of a technical person" dataDxfId="20">
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Feedback - Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..4. I think that I would need the support of a technical person" dataDxfId="18">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="rfe3dc9c8a3954e01b1774c3b5b800e0d-Comment"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..5. I found the various functions in this website were well int" dataDxfId="19">
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..5. I found the various functions in this website were well int" dataDxfId="17">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r8dfaf28da0aa47e586f44b8a4938fa08"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Points - Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..5. I found the various functions in this website were well int" dataDxfId="18">
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Points - Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..5. I found the various functions in this website were well int" dataDxfId="16">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r8dfaf28da0aa47e586f44b8a4938fa08-Score"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Feedback - Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..5. I found the various functions in this website were well int" dataDxfId="17">
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Feedback - Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..5. I found the various functions in this website were well int" dataDxfId="15">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r8dfaf28da0aa47e586f44b8a4938fa08-Comment"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..6. I thought there was too much inconsistency in this website." dataDxfId="16">
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..6. I thought there was too much inconsistency in this website." dataDxfId="14">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r66ca485695b048139c1425382274b498"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Points - Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..6. I thought there was too much inconsistency in this website." dataDxfId="15">
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Points - Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..6. I thought there was too much inconsistency in this website." dataDxfId="13">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r66ca485695b048139c1425382274b498-Score"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="Feedback - Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..6. I thought there was too much inconsistency in this website." dataDxfId="14">
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="Feedback - Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..6. I thought there was too much inconsistency in this website." dataDxfId="12">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r66ca485695b048139c1425382274b498-Comment"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..7. I would imagine that most people would learn to use this we" dataDxfId="13">
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..7. I would imagine that most people would learn to use this we" dataDxfId="11">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="re5ac07f166e94be582ae59b3150c2788"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Points - Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..7. I would imagine that most people would learn to use this we" dataDxfId="12">
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Points - Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..7. I would imagine that most people would learn to use this we" dataDxfId="10">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="re5ac07f166e94be582ae59b3150c2788-Score"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="Feedback - Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..7. I would imagine that most people would learn to use this we" dataDxfId="11">
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="Feedback - Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..7. I would imagine that most people would learn to use this we" dataDxfId="9">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="re5ac07f166e94be582ae59b3150c2788-Comment"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..8. I found the website very cumbersome/awkward to use." dataDxfId="10">
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..8. I found the website very cumbersome/awkward to use." dataDxfId="8">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="re9d3db042376417ab195abbc5644ece7"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="Points - Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..8. I found the website very cumbersome/awkward to use." dataDxfId="9">
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="Points - Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..8. I found the website very cumbersome/awkward to use." dataDxfId="7">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="re9d3db042376417ab195abbc5644ece7-Score"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="Feedback - Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..8. I found the website very cumbersome/awkward to use." dataDxfId="8">
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="Feedback - Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..8. I found the website very cumbersome/awkward to use." dataDxfId="6">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="re9d3db042376417ab195abbc5644ece7-Comment"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..9. I felt very confident using the website." dataDxfId="7">
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..9. I felt very confident using the website." dataDxfId="5">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r569624060ed2412eaf789f68d1b727cc"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="Points - Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..9. I felt very confident using the website." dataDxfId="6">
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="Points - Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..9. I felt very confident using the website." dataDxfId="4">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r569624060ed2412eaf789f68d1b727cc-Score"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="Feedback - Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..9. I felt very confident using the website." dataDxfId="5">
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="Feedback - Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..9. I felt very confident using the website." dataDxfId="3">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r569624060ed2412eaf789f68d1b727cc-Comment"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..10. I needed to learn a lot of things before I could get going" dataDxfId="4">
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..10. I needed to learn a lot of things before I could get going" dataDxfId="2">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r3990e71ce3834547838ba3750ec3f8b7"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="Points - Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..10. I needed to learn a lot of things before I could get going" dataDxfId="3">
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="Points - Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..10. I needed to learn a lot of things before I could get going" dataDxfId="1">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r3990e71ce3834547838ba3750ec3f8b7-Score"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="Feedback - Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..10. I needed to learn a lot of things before I could get going" dataDxfId="2">
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="Feedback - Please answer the questions below regarding the website Coursework Wizard without taking loading time and website speed in consideration..10. I needed to learn a lot of things before I could get going" dataDxfId="0">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r3990e71ce3834547838ba3750ec3f8b7-Comment"/>
@@ -1015,18 +1129,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR11"/>
+  <dimension ref="A1:AP26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AK19" sqref="AK19"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.21875" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" customWidth="1"/>
-    <col min="4" max="12" width="20" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="2.88671875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="6.109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="16.21875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="31.109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="42.33203125" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="13.6640625" customWidth="1"/>
     <col min="14" max="15" width="20" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="15.88671875" customWidth="1"/>
@@ -1987,6 +2109,115 @@
         <v>0</v>
       </c>
     </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="M16" t="s">
+        <v>49</v>
+      </c>
+      <c r="P16" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>49</v>
+      </c>
+      <c r="S16" t="s">
+        <v>49</v>
+      </c>
+      <c r="T16" t="s">
+        <v>50</v>
+      </c>
+      <c r="U16" t="s">
+        <v>49</v>
+      </c>
+      <c r="V16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X16" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1994,4 +2225,1001 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{479DF186-33DC-4004-B680-D5B64718CE0B}">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
+        <v>3</v>
+      </c>
+      <c r="C2" s="9">
+        <v>3</v>
+      </c>
+      <c r="D2" s="9">
+        <v>3</v>
+      </c>
+      <c r="E2" s="9">
+        <v>2</v>
+      </c>
+      <c r="F2" s="9">
+        <v>3</v>
+      </c>
+      <c r="G2" s="9">
+        <v>1</v>
+      </c>
+      <c r="H2" s="9">
+        <v>4</v>
+      </c>
+      <c r="I2" s="9">
+        <v>1</v>
+      </c>
+      <c r="J2" s="9">
+        <v>3</v>
+      </c>
+      <c r="K2" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12">
+        <v>4</v>
+      </c>
+      <c r="C3" s="12">
+        <v>3</v>
+      </c>
+      <c r="D3" s="12">
+        <v>2</v>
+      </c>
+      <c r="E3" s="12">
+        <v>3</v>
+      </c>
+      <c r="F3" s="12">
+        <v>4</v>
+      </c>
+      <c r="G3" s="12">
+        <v>2</v>
+      </c>
+      <c r="H3" s="12">
+        <v>3</v>
+      </c>
+      <c r="I3" s="12">
+        <v>2</v>
+      </c>
+      <c r="J3" s="12">
+        <v>3</v>
+      </c>
+      <c r="K3" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2</v>
+      </c>
+      <c r="D4" s="9">
+        <v>4</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9">
+        <v>4</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
+      <c r="H4" s="9">
+        <v>5</v>
+      </c>
+      <c r="I4" s="9">
+        <v>4</v>
+      </c>
+      <c r="J4" s="9">
+        <v>5</v>
+      </c>
+      <c r="K4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12">
+        <v>5</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12">
+        <v>5</v>
+      </c>
+      <c r="E5" s="12">
+        <v>2</v>
+      </c>
+      <c r="F5" s="12">
+        <v>5</v>
+      </c>
+      <c r="G5" s="12">
+        <v>1</v>
+      </c>
+      <c r="H5" s="12">
+        <v>5</v>
+      </c>
+      <c r="I5" s="12">
+        <v>1</v>
+      </c>
+      <c r="J5" s="12">
+        <v>5</v>
+      </c>
+      <c r="K5" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9">
+        <v>5</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9">
+        <v>5</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9">
+        <v>4</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9">
+        <v>5</v>
+      </c>
+      <c r="K6" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12">
+        <v>5</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+      <c r="D7" s="12">
+        <v>5</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12">
+        <v>5</v>
+      </c>
+      <c r="G7" s="12">
+        <v>1</v>
+      </c>
+      <c r="H7" s="12">
+        <v>4</v>
+      </c>
+      <c r="I7" s="12">
+        <v>1</v>
+      </c>
+      <c r="J7" s="12">
+        <v>5</v>
+      </c>
+      <c r="K7" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9">
+        <v>4</v>
+      </c>
+      <c r="C8" s="9">
+        <v>2</v>
+      </c>
+      <c r="D8" s="9">
+        <v>4</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9">
+        <v>4</v>
+      </c>
+      <c r="G8" s="9">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9">
+        <v>4</v>
+      </c>
+      <c r="I8" s="9">
+        <v>1</v>
+      </c>
+      <c r="J8" s="9">
+        <v>4</v>
+      </c>
+      <c r="K8" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>9</v>
+      </c>
+      <c r="B9" s="12">
+        <v>4</v>
+      </c>
+      <c r="C9" s="12">
+        <v>2</v>
+      </c>
+      <c r="D9" s="12">
+        <v>4</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12">
+        <v>5</v>
+      </c>
+      <c r="G9" s="12">
+        <v>2</v>
+      </c>
+      <c r="H9" s="12">
+        <v>5</v>
+      </c>
+      <c r="I9" s="12">
+        <v>2</v>
+      </c>
+      <c r="J9" s="12">
+        <v>4</v>
+      </c>
+      <c r="K9" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>10</v>
+      </c>
+      <c r="B10" s="9">
+        <v>4</v>
+      </c>
+      <c r="C10" s="9">
+        <v>3</v>
+      </c>
+      <c r="D10" s="9">
+        <v>4</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9">
+        <v>3</v>
+      </c>
+      <c r="G10" s="9">
+        <v>4</v>
+      </c>
+      <c r="H10" s="9">
+        <v>5</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1</v>
+      </c>
+      <c r="J10" s="9">
+        <v>4</v>
+      </c>
+      <c r="K10" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="12">
+        <v>3</v>
+      </c>
+      <c r="C11" s="12">
+        <v>3</v>
+      </c>
+      <c r="D11" s="12">
+        <v>4</v>
+      </c>
+      <c r="E11" s="12">
+        <v>2</v>
+      </c>
+      <c r="F11" s="12">
+        <v>3</v>
+      </c>
+      <c r="G11" s="12">
+        <v>2</v>
+      </c>
+      <c r="H11" s="12">
+        <v>4</v>
+      </c>
+      <c r="I11" s="12">
+        <v>1</v>
+      </c>
+      <c r="J11" s="12">
+        <v>3</v>
+      </c>
+      <c r="K11" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3806B80-291F-4D33-B33B-3A64616B0697}">
+  <dimension ref="A1:P20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
+        <v>2</v>
+      </c>
+      <c r="C2" s="9">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9">
+        <v>2</v>
+      </c>
+      <c r="E2" s="9">
+        <v>3</v>
+      </c>
+      <c r="F2" s="9">
+        <v>2</v>
+      </c>
+      <c r="G2" s="9">
+        <v>4</v>
+      </c>
+      <c r="H2" s="9">
+        <v>3</v>
+      </c>
+      <c r="I2" s="9">
+        <v>4</v>
+      </c>
+      <c r="J2" s="9">
+        <v>2</v>
+      </c>
+      <c r="K2" s="10">
+        <v>2</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2">
+        <f>SUM(B2:K2)</f>
+        <v>26</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2">
+        <f>M2*E20</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12">
+        <v>3</v>
+      </c>
+      <c r="C3" s="12">
+        <v>2</v>
+      </c>
+      <c r="D3" s="12">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12">
+        <v>2</v>
+      </c>
+      <c r="F3" s="12">
+        <v>3</v>
+      </c>
+      <c r="G3" s="12">
+        <v>3</v>
+      </c>
+      <c r="H3" s="12">
+        <v>2</v>
+      </c>
+      <c r="I3" s="12">
+        <v>3</v>
+      </c>
+      <c r="J3" s="12">
+        <v>2</v>
+      </c>
+      <c r="K3" s="13">
+        <v>1</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M11" si="0">SUM(B3:K3)</f>
+        <v>22</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3">
+        <f>M3*E20</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9">
+        <v>4</v>
+      </c>
+      <c r="C4" s="9">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9">
+        <v>3</v>
+      </c>
+      <c r="E4" s="9">
+        <v>4</v>
+      </c>
+      <c r="F4" s="9">
+        <v>3</v>
+      </c>
+      <c r="G4" s="9">
+        <v>2</v>
+      </c>
+      <c r="H4" s="9">
+        <v>4</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9">
+        <v>4</v>
+      </c>
+      <c r="K4" s="9">
+        <v>4</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4">
+        <f>M4*E20</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12">
+        <v>4</v>
+      </c>
+      <c r="D5" s="12">
+        <v>4</v>
+      </c>
+      <c r="E5" s="12">
+        <v>3</v>
+      </c>
+      <c r="F5" s="12">
+        <v>4</v>
+      </c>
+      <c r="G5" s="12">
+        <v>4</v>
+      </c>
+      <c r="H5" s="12">
+        <v>4</v>
+      </c>
+      <c r="I5" s="12">
+        <v>4</v>
+      </c>
+      <c r="J5" s="12">
+        <v>4</v>
+      </c>
+      <c r="K5" s="12">
+        <v>4</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5">
+        <f>M5*E20</f>
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9">
+        <v>4</v>
+      </c>
+      <c r="D6" s="9">
+        <v>4</v>
+      </c>
+      <c r="E6" s="9">
+        <v>4</v>
+      </c>
+      <c r="F6" s="9">
+        <v>4</v>
+      </c>
+      <c r="G6" s="9">
+        <v>4</v>
+      </c>
+      <c r="H6" s="9">
+        <v>3</v>
+      </c>
+      <c r="I6" s="9">
+        <v>4</v>
+      </c>
+      <c r="J6" s="9">
+        <v>4</v>
+      </c>
+      <c r="K6" s="9">
+        <v>4</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6">
+        <f>M6*E20</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12">
+        <v>4</v>
+      </c>
+      <c r="D7" s="12">
+        <v>4</v>
+      </c>
+      <c r="E7" s="12">
+        <v>4</v>
+      </c>
+      <c r="F7" s="12">
+        <v>4</v>
+      </c>
+      <c r="G7" s="12">
+        <v>4</v>
+      </c>
+      <c r="H7" s="12">
+        <v>3</v>
+      </c>
+      <c r="I7" s="12">
+        <v>4</v>
+      </c>
+      <c r="J7" s="12">
+        <v>4</v>
+      </c>
+      <c r="K7" s="12">
+        <v>4</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7">
+        <f>M7*E20</f>
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9">
+        <v>3</v>
+      </c>
+      <c r="C8" s="9">
+        <v>3</v>
+      </c>
+      <c r="D8" s="9">
+        <v>3</v>
+      </c>
+      <c r="E8" s="9">
+        <v>4</v>
+      </c>
+      <c r="F8" s="9">
+        <v>3</v>
+      </c>
+      <c r="G8" s="9">
+        <v>4</v>
+      </c>
+      <c r="H8" s="9">
+        <v>3</v>
+      </c>
+      <c r="I8" s="9">
+        <v>4</v>
+      </c>
+      <c r="J8" s="9">
+        <v>3</v>
+      </c>
+      <c r="K8" s="9">
+        <v>3</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="O8">
+        <f>M8*E20</f>
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>9</v>
+      </c>
+      <c r="B9" s="12">
+        <v>3</v>
+      </c>
+      <c r="C9" s="12">
+        <v>3</v>
+      </c>
+      <c r="D9" s="12">
+        <v>3</v>
+      </c>
+      <c r="E9" s="12">
+        <v>4</v>
+      </c>
+      <c r="F9" s="12">
+        <v>4</v>
+      </c>
+      <c r="G9" s="12">
+        <v>3</v>
+      </c>
+      <c r="H9" s="12">
+        <v>4</v>
+      </c>
+      <c r="I9" s="12">
+        <v>3</v>
+      </c>
+      <c r="J9" s="12">
+        <v>3</v>
+      </c>
+      <c r="K9" s="12">
+        <v>4</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="O9">
+        <f>M9*E20</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>10</v>
+      </c>
+      <c r="B10" s="9">
+        <v>3</v>
+      </c>
+      <c r="C10" s="9">
+        <v>2</v>
+      </c>
+      <c r="D10" s="9">
+        <v>3</v>
+      </c>
+      <c r="E10" s="9">
+        <v>4</v>
+      </c>
+      <c r="F10" s="9">
+        <v>2</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9">
+        <v>4</v>
+      </c>
+      <c r="I10" s="9">
+        <v>4</v>
+      </c>
+      <c r="J10" s="9">
+        <v>3</v>
+      </c>
+      <c r="K10" s="9">
+        <v>4</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="O10">
+        <f>M10*E20</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="12">
+        <v>2</v>
+      </c>
+      <c r="C11" s="12">
+        <v>2</v>
+      </c>
+      <c r="D11" s="12">
+        <v>3</v>
+      </c>
+      <c r="E11" s="12">
+        <v>3</v>
+      </c>
+      <c r="F11" s="12">
+        <v>2</v>
+      </c>
+      <c r="G11" s="12">
+        <v>3</v>
+      </c>
+      <c r="H11" s="12">
+        <v>3</v>
+      </c>
+      <c r="I11" s="12">
+        <v>4</v>
+      </c>
+      <c r="J11" s="12">
+        <v>2</v>
+      </c>
+      <c r="K11" s="12">
+        <v>3</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11">
+        <f>M11*E20</f>
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M15" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="N15" s="16"/>
+      <c r="O15">
+        <f>AVERAGE(O2:O11)</f>
+        <v>80</v>
+      </c>
+      <c r="P15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20">
+        <v>2.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="M15:N15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="M2:M4 M5:M12" formulaRange="1"/>
+    <ignoredError sqref="O3" formula="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>